--- a/config/excelFile/底注加注表.xlsx
+++ b/config/excelFile/底注加注表.xlsx
@@ -4,23 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="17055" windowHeight="6975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:O22"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>底注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
   <si>
     <t>游戏类型（1-扯旋 2-扎金花 3-十点半）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +44,10 @@
   </si>
   <si>
     <t>加注5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,7 +403,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -414,28 +415,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -457,6 +458,12 @@
       <c r="F2" s="1">
         <v>200</v>
       </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
@@ -477,6 +484,12 @@
       <c r="F3" s="1">
         <v>800</v>
       </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
@@ -497,6 +510,12 @@
       <c r="F4" s="1">
         <v>4000</v>
       </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
@@ -586,6 +605,21 @@
       <c r="C8" s="1">
         <v>3</v>
       </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
@@ -597,6 +631,21 @@
       <c r="C9" s="1">
         <v>3</v>
       </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
@@ -607,6 +656,21 @@
       </c>
       <c r="C10" s="1">
         <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
